--- a/data/data_raw/pv/la_esperanza_pv.xlsx
+++ b/data/data_raw/pv/la_esperanza_pv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HEMERA\ID2023\id23_10297\data\data_raw\pv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hemera\garces\data\data_raw\pv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018272EA-9CF7-4174-A162-36F66761EE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8305D27-A70E-4601-AB70-49CEDEAA9C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T4H79A4" sheetId="46" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="8">
   <si>
     <t>hora</t>
   </si>
@@ -52,12 +52,24 @@
   <si>
     <t>Peso2</t>
   </si>
+  <si>
+    <t>peso_humedo</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>peso_cosechado</t>
+  </si>
+  <si>
+    <t>peso_seco</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -77,6 +89,18 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,12 +123,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -320,29 +347,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C6086E-5FC3-4B20-8BB3-063C3EE91DB7}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0.41597222222222219</v>
       </c>
@@ -355,8 +385,11 @@
       <c r="D2">
         <v>1.9177999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>0.79449999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>0.42152777777777778</v>
       </c>
@@ -369,8 +402,11 @@
       <c r="D3">
         <v>1.8895</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>0.79449999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>0.4291666666666667</v>
       </c>
@@ -383,8 +419,11 @@
       <c r="D4">
         <v>1.8588</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>0.79449999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>0.43333333333333335</v>
       </c>
@@ -397,8 +436,11 @@
       <c r="D5">
         <v>1.8399000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>0.79449999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>0.43958333333333338</v>
       </c>
@@ -411,8 +453,11 @@
       <c r="D6" s="3">
         <v>1.8190999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>0.79449999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>0.45069444444444445</v>
       </c>
@@ -425,8 +470,11 @@
       <c r="D7" s="3">
         <v>1.7911999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>0.79449999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>0.45347222222222222</v>
       </c>
@@ -439,8 +487,11 @@
       <c r="D8" s="3">
         <v>1.7810999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>0.79449999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>0.45624999999999999</v>
       </c>
@@ -453,38 +504,41 @@
       <c r="D9" s="3">
         <v>1.7717000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>0.79449999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
     </row>
   </sheetData>
@@ -494,180 +548,213 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF159E0-604A-412F-BBB8-A6DF72FD9545}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="10.6640625" style="6"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="7">
         <v>0.4201388888888889</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="6">
         <v>2.6781999999999999</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>4.96</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="6">
         <v>2.6682999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="E2" s="6">
+        <v>1.0468999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="7">
         <v>0.42569444444444443</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="6">
         <v>2.6242000000000001</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>11.28</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6">
         <v>2.6137999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="E3" s="6">
+        <v>1.0468999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="7">
         <v>0.42986111111111108</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="6">
         <v>2.5853999999999999</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>16.96</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <v>2.5758999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="E4" s="6">
+        <v>1.0468999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="7">
         <v>0.43472222222222223</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="6">
         <v>2.5474999999999999</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>21.62</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="6">
         <v>2.5417999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="E5" s="6">
+        <v>1.0468999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="7">
         <v>0.44722222222222219</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="6">
         <v>2.4948999999999999</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>27.21</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="6">
         <v>2.4931999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="E6" s="6">
+        <v>1.0468999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="7">
         <v>0.45208333333333334</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
         <v>2.4775999999999998</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>29.48</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="6">
         <v>2.4721000000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="E7" s="6">
+        <v>1.0468999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="7">
         <v>0.4548611111111111</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="6">
         <v>2.4674999999999998</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>29.67</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="6">
         <v>2.4630000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="E8" s="6">
+        <v>1.0468999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="7">
         <v>0.45902777777777781</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="6">
         <v>2.4567000000000001</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>29.81</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="6">
         <v>2.4489000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="E9" s="6">
+        <v>1.0468999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="7">
         <v>0.46527777777777773</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="6">
         <v>2.4401000000000002</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <v>32.799999999999997</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="6">
         <v>2.4403000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="E10" s="6">
+        <v>1.0468999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="7"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="7"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" s="7"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -677,29 +764,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A92036-8F6E-42C4-9AE5-9DBBCAD50D6C}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E2" sqref="E2:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0.38055555555555554</v>
       </c>
@@ -712,8 +802,11 @@
       <c r="D2">
         <v>1.9742999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>0.7591</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>0.38611111111111113</v>
       </c>
@@ -726,8 +819,11 @@
       <c r="D3">
         <v>1.9567000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>0.7591</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>0.39097222222222222</v>
       </c>
@@ -740,8 +836,11 @@
       <c r="D4">
         <v>1.9386000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>0.7591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>0.39652777777777781</v>
       </c>
@@ -754,8 +853,11 @@
       <c r="D5">
         <v>1.9216</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>0.7591</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>0.40208333333333335</v>
       </c>
@@ -768,8 +870,11 @@
       <c r="D6">
         <v>1.9026000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>0.7591</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>0.40833333333333338</v>
       </c>
@@ -782,8 +887,11 @@
       <c r="D7">
         <v>1.8866000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>0.7591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>0.41388888888888892</v>
       </c>
@@ -796,8 +904,11 @@
       <c r="D8">
         <v>1.8742000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>0.7591</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>0.41805555555555557</v>
       </c>
@@ -810,8 +921,11 @@
       <c r="D9">
         <v>1.8636999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>0.7591</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>0.42222222222222222</v>
       </c>
@@ -824,8 +938,11 @@
       <c r="D10">
         <v>1.8525</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>0.7591</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>0.42708333333333331</v>
       </c>
@@ -838,8 +955,11 @@
       <c r="D11">
         <v>1.8411</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>0.7591</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>0.43194444444444446</v>
       </c>
@@ -852,8 +972,11 @@
       <c r="D12">
         <v>1.8309</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>0.7591</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>0.4368055555555555</v>
       </c>
@@ -866,8 +989,11 @@
       <c r="D13">
         <v>1.8193999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>0.7591</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>0.44861111111111113</v>
       </c>
@@ -879,6 +1005,9 @@
       </c>
       <c r="D14">
         <v>1.7890999999999999</v>
+      </c>
+      <c r="E14">
+        <v>0.7591</v>
       </c>
     </row>
   </sheetData>
@@ -888,29 +1017,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5D0DA7-3D38-4903-9B3D-F7A0A5F1C9B0}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0.47569444444444442</v>
       </c>
@@ -923,8 +1055,11 @@
       <c r="D2">
         <v>3.3403</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1.2633000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>0.48055555555555557</v>
       </c>
@@ -937,8 +1072,11 @@
       <c r="D3">
         <v>3.3010999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>1.2633000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>0.48680555555555555</v>
       </c>
@@ -951,8 +1089,11 @@
       <c r="D4">
         <v>3.2559</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>1.2633000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>0.49444444444444446</v>
       </c>
@@ -965,8 +1106,11 @@
       <c r="D5">
         <v>3.2132000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>1.2633000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>0.50208333333333333</v>
       </c>
@@ -979,8 +1123,11 @@
       <c r="D6">
         <v>3.1701999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>1.2633000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>0.50555555555555554</v>
       </c>
@@ -993,8 +1140,11 @@
       <c r="D7">
         <v>3.1539999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>1.2633000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>0.50972222222222219</v>
       </c>
@@ -1007,8 +1157,11 @@
       <c r="D8">
         <v>3.1328</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>1.2633000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>0.51597222222222217</v>
       </c>
@@ -1021,8 +1174,11 @@
       <c r="D9">
         <v>3.1063999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>1.2633000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>0.51944444444444449</v>
       </c>
@@ -1035,8 +1191,11 @@
       <c r="D10">
         <v>3.0905999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>1.2633000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>0.52222222222222225</v>
       </c>
@@ -1049,8 +1208,11 @@
       <c r="D11">
         <v>3.0796999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>1.2633000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>0.52500000000000002</v>
       </c>
@@ -1062,6 +1224,9 @@
       </c>
       <c r="D12">
         <v>3.0674000000000001</v>
+      </c>
+      <c r="E12">
+        <v>1.2633000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1071,29 +1236,32 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864F8575-C5E9-471A-995D-14393588FD8A}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0.49236111111111108</v>
       </c>
@@ -1106,8 +1274,11 @@
       <c r="D2">
         <v>2.2683</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>0.84970000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>0.4993055555555555</v>
       </c>
@@ -1120,8 +1291,11 @@
       <c r="D3">
         <v>2.2421000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>0.84970000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>0.50624999999999998</v>
       </c>
@@ -1134,8 +1308,11 @@
       <c r="D4">
         <v>2.2158000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>0.84970000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>0.5131944444444444</v>
       </c>
@@ -1148,8 +1325,11 @@
       <c r="D5">
         <v>2.1974999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>0.84970000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>0.52083333333333337</v>
       </c>
@@ -1162,8 +1342,11 @@
       <c r="D6">
         <v>2.1760999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>0.84970000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>0.52777777777777779</v>
       </c>
@@ -1176,8 +1359,11 @@
       <c r="D7">
         <v>2.1616</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>0.84970000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>0.53472222222222221</v>
       </c>
@@ -1190,8 +1376,11 @@
       <c r="D8">
         <v>2.1465999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>0.84970000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>0.54166666666666663</v>
       </c>
@@ -1204,8 +1393,11 @@
       <c r="D9">
         <v>2.1347</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>0.84970000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>0.54861111111111105</v>
       </c>
@@ -1218,8 +1410,11 @@
       <c r="D10">
         <v>2.1198999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>0.84970000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>0.55208333333333337</v>
       </c>
@@ -1232,8 +1427,11 @@
       <c r="D11">
         <v>2.1097000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>0.84970000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>0.55555555555555558</v>
       </c>
@@ -1246,8 +1444,11 @@
       <c r="D12">
         <v>2.1013999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>0.84970000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>0.5625</v>
       </c>
@@ -1260,8 +1461,11 @@
       <c r="D13">
         <v>2.0802999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>0.84970000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>0.57291666666666663</v>
       </c>
@@ -1274,8 +1478,11 @@
       <c r="D14">
         <v>2.0625</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>0.84970000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>0.57986111111111105</v>
       </c>
@@ -1287,6 +1494,9 @@
       </c>
       <c r="D15">
         <v>2.0442999999999998</v>
+      </c>
+      <c r="E15">
+        <v>0.84970000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1296,29 +1506,32 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E10A01-41B0-430D-9C66-8A796B6392B4}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0.47361111111111115</v>
       </c>
@@ -1331,8 +1544,11 @@
       <c r="D2">
         <v>3.2416</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1.3183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>0.47916666666666669</v>
       </c>
@@ -1345,8 +1561,11 @@
       <c r="D3">
         <v>3.1861000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>1.3183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>0.4826388888888889</v>
       </c>
@@ -1359,8 +1578,11 @@
       <c r="D4">
         <v>3.1572</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>1.3183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>0.4861111111111111</v>
       </c>
@@ -1373,8 +1595,11 @@
       <c r="D5">
         <v>3.1286</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>1.3183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>0.48958333333333331</v>
       </c>
@@ -1387,8 +1612,11 @@
       <c r="D6">
         <v>3.1053000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>1.3183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>0.49305555555555558</v>
       </c>
@@ -1401,8 +1629,11 @@
       <c r="D7">
         <v>3.0872999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>1.3183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>0.49652777777777773</v>
       </c>
@@ -1415,8 +1646,11 @@
       <c r="D8">
         <v>3.0727000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>1.3183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>0.50347222222222221</v>
       </c>
@@ -1429,8 +1663,11 @@
       <c r="D9">
         <v>3.0436999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>1.3183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>0.50763888888888886</v>
       </c>
@@ -1443,8 +1680,11 @@
       <c r="D10">
         <v>3.0266999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>1.3183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>0.51111111111111118</v>
       </c>
@@ -1457,8 +1697,11 @@
       <c r="D11">
         <v>3.0194999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>1.3183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>0.51736111111111105</v>
       </c>
@@ -1470,6 +1713,9 @@
       </c>
       <c r="D12">
         <v>2.9975999999999998</v>
+      </c>
+      <c r="E12">
+        <v>1.3183</v>
       </c>
     </row>
   </sheetData>
@@ -1485,9 +1731,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1501,7 +1747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0.50208333333333333</v>
       </c>
@@ -1515,7 +1761,7 @@
         <v>0.69940000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>0.50902777777777775</v>
       </c>
@@ -1529,7 +1775,7 @@
         <v>0.68779999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>0.51180555555555551</v>
       </c>

--- a/data/data_raw/pv/la_esperanza_pv.xlsx
+++ b/data/data_raw/pv/la_esperanza_pv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hemera\garces\data\data_raw\pv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8305D27-A70E-4601-AB70-49CEDEAA9C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA1770F-DC99-468B-88DE-4F862C874D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T4H79A4" sheetId="46" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="T0H103A4" sheetId="42" r:id="rId4"/>
     <sheet name="T0H103A8" sheetId="43" r:id="rId5"/>
     <sheet name="T0H105A6" sheetId="44" r:id="rId6"/>
-    <sheet name="T0H103A4-LE" sheetId="19" state="hidden" r:id="rId7"/>
+    <sheet name="prueba" sheetId="48" r:id="rId7"/>
+    <sheet name="T0H103A4-LE" sheetId="19" state="hidden" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="8">
   <si>
     <t>hora</t>
   </si>
@@ -1508,8 +1509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E10A01-41B0-430D-9C66-8A796B6392B4}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1724,6 +1725,126 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846A22E0-9BDE-4CB9-8C99-32B03178A1BA}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <v>0.03</v>
+      </c>
+      <c r="D2">
+        <v>1.379</v>
+      </c>
+      <c r="E2">
+        <v>0.33460000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1.36385</v>
+      </c>
+      <c r="E3">
+        <v>0.33460000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>11.82</v>
+      </c>
+      <c r="D4">
+        <v>1.3525</v>
+      </c>
+      <c r="E4">
+        <v>0.33460000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>16.03</v>
+      </c>
+      <c r="D5">
+        <v>1.3380000000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.33460000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>21.22</v>
+      </c>
+      <c r="D6">
+        <v>1.3205</v>
+      </c>
+      <c r="E6">
+        <v>0.33460000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>24.45</v>
+      </c>
+      <c r="D7">
+        <v>1.3103</v>
+      </c>
+      <c r="E7">
+        <v>0.33460000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>25.45</v>
+      </c>
+      <c r="D8">
+        <v>1.2983</v>
+      </c>
+      <c r="E8">
+        <v>0.33460000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>32.229999999999997</v>
+      </c>
+      <c r="D9">
+        <v>1.2866</v>
+      </c>
+      <c r="E9">
+        <v>0.33460000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE45094-83F7-4124-B002-4B37CF475792}">
   <dimension ref="A1:D4"/>
   <sheetViews>

--- a/data/data_raw/pv/la_esperanza_pv.xlsx
+++ b/data/data_raw/pv/la_esperanza_pv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hemera\garces\data\data_raw\pv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA1770F-DC99-468B-88DE-4F862C874D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7222009C-55F2-4E4F-ABEF-0A9D493E042B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T4H79A4" sheetId="46" r:id="rId1"/>
@@ -19,8 +19,7 @@
     <sheet name="T0H103A4" sheetId="42" r:id="rId4"/>
     <sheet name="T0H103A8" sheetId="43" r:id="rId5"/>
     <sheet name="T0H105A6" sheetId="44" r:id="rId6"/>
-    <sheet name="prueba" sheetId="48" r:id="rId7"/>
-    <sheet name="T0H103A4-LE" sheetId="19" state="hidden" r:id="rId8"/>
+    <sheet name="T0H103A4-LE" sheetId="19" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="8">
   <si>
     <t>hora</t>
   </si>
@@ -1509,7 +1508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E10A01-41B0-430D-9C66-8A796B6392B4}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -1725,126 +1724,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846A22E0-9BDE-4CB9-8C99-32B03178A1BA}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C2">
-        <v>0.03</v>
-      </c>
-      <c r="D2">
-        <v>1.379</v>
-      </c>
-      <c r="E2">
-        <v>0.33460000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1.36385</v>
-      </c>
-      <c r="E3">
-        <v>0.33460000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C4">
-        <v>11.82</v>
-      </c>
-      <c r="D4">
-        <v>1.3525</v>
-      </c>
-      <c r="E4">
-        <v>0.33460000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C5">
-        <v>16.03</v>
-      </c>
-      <c r="D5">
-        <v>1.3380000000000001</v>
-      </c>
-      <c r="E5">
-        <v>0.33460000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C6">
-        <v>21.22</v>
-      </c>
-      <c r="D6">
-        <v>1.3205</v>
-      </c>
-      <c r="E6">
-        <v>0.33460000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C7">
-        <v>24.45</v>
-      </c>
-      <c r="D7">
-        <v>1.3103</v>
-      </c>
-      <c r="E7">
-        <v>0.33460000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C8">
-        <v>25.45</v>
-      </c>
-      <c r="D8">
-        <v>1.2983</v>
-      </c>
-      <c r="E8">
-        <v>0.33460000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C9">
-        <v>32.229999999999997</v>
-      </c>
-      <c r="D9">
-        <v>1.2866</v>
-      </c>
-      <c r="E9">
-        <v>0.33460000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE45094-83F7-4124-B002-4B37CF475792}">
   <dimension ref="A1:D4"/>
   <sheetViews>
